--- a/output_region_cycle2017_summary_Latin_America_and_the_Caribbean.xlsx
+++ b/output_region_cycle2017_summary_Latin_America_and_the_Caribbean.xlsx
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -956,13 +956,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
